--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.93</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008885</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博远博锐混合C</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74.93</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.47</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>008885</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>博远博锐混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +830,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -772,15 +870,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>29.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -800,15 +908,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>29.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -933,4 +934,438 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1368,4 +1369,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1691,4 +1692,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1700,7 +1701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,17 +1712,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1731,14 +1752,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1747,14 +1790,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.4</v>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1763,14 +1828,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1779,13 +1866,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2593,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,17 +2605,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2624,14 +2645,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2640,14 +2683,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2656,14 +2721,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4</v>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2672,14 +2759,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2688,13 +2797,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2954,7 +2955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,17 +2966,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2985,14 +3006,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3001,14 +3044,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3017,14 +3082,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.31</v>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3033,14 +3120,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.4</v>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3049,14 +3158,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3065,13 +3196,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3233,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3365,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300294-博雅生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.76</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,392 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1058,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.73</t>
+          <t>27.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1480</t>
+          <t>1.3124</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1096,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61.72</t>
+          <t>85.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5044</t>
+          <t>0.8305</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1134,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4592</t>
+          <t>0.8178</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1162,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>18.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>97.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4203</t>
+          <t>0.6236</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1200,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3925</t>
+          <t>0.2450</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -873,22 +1248,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1907</t>
+          <t>0.2336</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,36 +1276,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>008405</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>华泰紫金泰盈混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1625</t>
+          <t>0.2305</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1324,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.34</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1232</t>
+          <t>0.1939</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1352,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011876</t>
+          <t>011694</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城医疗健康混合A</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0920</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1025,26 +1400,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0823</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1428,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>015052</t>
+          <t>011383</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方红医疗升级股票A</t>
+          <t>富安达医药创新混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1466,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005226</t>
+          <t>015779</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>山西证券改革精选灵活配置混合</t>
+          <t>景顺长城价值边际灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1504,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011877</t>
+          <t>011695</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城医疗健康混合C</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1542,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>930602</t>
+          <t>017090</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国信价值智选混合</t>
+          <t>景顺长城能源基建混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76.70</t>
+          <t>85.17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1580,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>015779</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合C</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.34</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1243,32 +1618,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013920</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴华创新医疗6个月持有混合A</t>
+          <t>富安达健康人生灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1281,36 +1656,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>015139</t>
+          <t>005226</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康医疗健康股票A</t>
+          <t>山西证券改革精选灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1329,26 +1704,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.18</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1732,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015053</t>
+          <t>013920</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方红医疗升级股票C</t>
+          <t>兴华创新医疗6个月持有混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1395,32 +1770,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>015140</t>
+          <t>013921</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰康医疗健康股票C</t>
+          <t>兴华创新医疗6个月持有混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1433,33 +1808,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>013921</t>
+          <t>014470</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴华创新医疗6个月持有混合C</t>
+          <t>富安达健康人生灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -1471,6 +1844,860 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,7 +3323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2456,7 +3683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3670,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4104,7 +5331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4234,362 +5461,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2649</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>